--- a/Commodities/Livent.xlsx
+++ b/Commodities/Livent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Commodities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458F04D-A70D-2D4A-8E89-1D09FC3CACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE685AB0-B373-434F-A8CA-350271C72D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -540,18 +540,12 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
     <t>Forward P/E</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Levered FCF</t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>Unlevered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -580,6 +571,12 @@
   </si>
   <si>
     <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Share Dilution (6yr)</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
@@ -893,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1001,9 +998,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,9 +1008,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1067,6 +1058,15 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,7 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,10 +1303,10 @@
                   <c:v>813200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1064000000</c:v>
+                  <c:v>1052000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1387000000</c:v>
+                  <c:v>1371000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1486000000</c:v>
@@ -1443,7 +1443,7 @@
                   <c:v>-18900000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600000</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>273500000</c:v>
@@ -1458,10 +1458,10 @@
                   <c:v>660400000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>687000000</c:v>
+                  <c:v>632000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1629000000</c:v>
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,13 +1595,13 @@
                   <c:v>454700000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64000000</c:v>
+                  <c:v>67000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180000000</c:v>
+                  <c:v>80000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>214000000</c:v>
+                  <c:v>235000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>371000000</c:v>
@@ -2372,43 +2372,39 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Fidelity Growth"/>
-      <sheetName val="IRA"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
-      <sheetName val="Best Mature"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="Hedge Fund Portfolio"/>
-      <sheetName val="Scored Portfolio"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>4.8019999999999993E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9880000000000008E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2420,10 +2416,6 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2550,10 +2542,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>35.81</v>
-    <v>16.420000000000002</v>
-    <v>1.8531</v>
-    <v>0.56000000000000005</v>
-    <v>3.3294000000000004E-2</v>
+    <v>15.725</v>
+    <v>1.853</v>
+    <v>-0.27</v>
+    <v>-1.677E-2</v>
+    <v>0.23</v>
+    <v>1.4529E-2</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2561,24 +2555,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>17.39</v>
+    <v>16.18</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45203.999235497657</v>
+    <v>45219.991373159377</v>
     <v>0</v>
-    <v>16.420000000000002</v>
-    <v>3123453652</v>
+    <v>15.725</v>
+    <v>2844894782</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>16.82</v>
-    <v>9.9543999999999997</v>
-    <v>16.82</v>
-    <v>17.38</v>
+    <v>15.95</v>
+    <v>9.2212999999999994</v>
+    <v>16.100000000000001</v>
+    <v>15.83</v>
+    <v>16.059999999999999</v>
     <v>179715400</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1</v>
-    <v>3343977</v>
+    <v>3894655</v>
+    <v>3920371</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2610,6 +2605,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2630,6 +2627,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2646,7 +2644,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2657,13 +2655,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2729,13 +2730,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2780,6 +2787,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2787,6 +2797,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3148,10 +3161,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3278,10 +3291,10 @@
         <v>813200000</v>
       </c>
       <c r="J3" s="24">
-        <v>1064000000</v>
+        <v>1052000000</v>
       </c>
       <c r="K3" s="24">
-        <v>1387000000</v>
+        <v>1371000000</v>
       </c>
       <c r="L3" s="24">
         <v>1486000000</v>
@@ -3340,15 +3353,15 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" ref="J4:N4" si="1">(J3/I3)-1</f>
-        <v>0.30841121495327095</v>
+        <v>0.29365469749139206</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="1"/>
-        <v>0.3035714285714286</v>
+        <v>0.30323193916349811</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="1"/>
-        <v>7.1377072819033938E-2</v>
+        <v>8.3880379285193207E-2</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="1"/>
@@ -3368,7 +3381,7 @@
       </c>
       <c r="Q4" s="17">
         <f>(I29+H29+G29)/3</f>
-        <v>150.8083644258943</v>
+        <v>-1.9774997716365581</v>
       </c>
       <c r="R4" s="17">
         <f>(I106+H106+G106)/3</f>
@@ -3443,16 +3456,20 @@
       <c r="I6" s="10">
         <v>395700000</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="J6" s="30">
+        <f>J3*J7</f>
+        <v>639721200</v>
+      </c>
+      <c r="O6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3484,21 +3501,24 @@
       <c r="I7" s="2">
         <v>0.48659999999999998</v>
       </c>
+      <c r="J7" s="2">
+        <v>0.60809999999999997</v>
+      </c>
       <c r="O7" s="17">
-        <f>I7</f>
-        <v>0.48659999999999998</v>
+        <f>J7</f>
+        <v>0.60809999999999997</v>
       </c>
       <c r="P7" s="21">
-        <f>I21</f>
-        <v>0.44945892769306445</v>
+        <f>J21</f>
+        <v>0.5513307984790875</v>
       </c>
       <c r="Q7" s="21">
-        <f>I30</f>
-        <v>0.33629999999999999</v>
+        <f>J30</f>
+        <v>0.42680608365019013</v>
       </c>
       <c r="R7" s="21">
-        <f>I107/I3</f>
-        <v>0.55914904082636496</v>
+        <f>J107/J3</f>
+        <v>6.3688212927756657E-2</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3809,7 +3829,7 @@
         <v>67300000</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>119</v>
@@ -3850,20 +3870,20 @@
         <v>484800000</v>
       </c>
       <c r="O16" s="25">
-        <f>(I35+H35+G35+F35+E35)/5</f>
-        <v>8.3402160590696592E-2</v>
+        <f>AVERAGE(E35:J35)</f>
+        <v>5.1409373243569916E-2</v>
       </c>
       <c r="P16" s="27">
         <f>Q102/I3</f>
-        <v>3.8409415297589771</v>
+        <v>3.4983949606492866</v>
       </c>
       <c r="Q16" s="27">
         <f>Q102/I28</f>
-        <v>11.420305857404022</v>
+        <v>10.401809074954295</v>
       </c>
       <c r="R16" s="28">
         <f>Q102/I107</f>
-        <v>6.8692624851550477</v>
+        <v>6.2566412623707937</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3927,13 +3947,13 @@
         <v>122</v>
       </c>
       <c r="P18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="Q18" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="R18" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3977,7 +3997,7 @@
         <v>817000000</v>
       </c>
       <c r="N19" s="30">
-        <v>1840000000</v>
+        <v>1200000000</v>
       </c>
       <c r="O19" s="26">
         <f>I40-I56-I61</f>
@@ -3985,15 +4005,15 @@
       </c>
       <c r="P19" s="27">
         <f>Q102/J3</f>
-        <v>2.9355767406015039</v>
+        <v>2.7042726064638782</v>
       </c>
       <c r="Q19" s="34">
         <f>Q102/J28</f>
-        <v>6.9564669309576841</v>
+        <v>6.3360685567928732</v>
       </c>
       <c r="R19" s="28">
         <f>Q102/J107</f>
-        <v>48.803963312500002</v>
+        <v>42.461116149253733</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4047,7 +4067,7 @@
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="9">(N19/M19)-1</f>
-        <v>1.2521419828641371</v>
+        <v>0.46878824969400235</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -4081,11 +4101,11 @@
       </c>
       <c r="J21" s="31">
         <f t="shared" ref="J21:M21" si="10">J19/J3</f>
-        <v>0.54511278195488722</v>
+        <v>0.5513307984790875</v>
       </c>
       <c r="K21" s="31">
         <f t="shared" si="10"/>
-        <v>0.4960346070656092</v>
+        <v>0.5018234865061999</v>
       </c>
       <c r="L21" s="31">
         <f t="shared" si="10"/>
@@ -4097,16 +4117,16 @@
       </c>
       <c r="N21" s="31">
         <f>N19/N3</f>
-        <v>0.80244221543829042</v>
+        <v>0.52333187963366767</v>
       </c>
       <c r="P21" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4139,7 +4159,7 @@
       </c>
       <c r="P22" s="17">
         <f>SUM(J29:N29)/5</f>
-        <v>0.49594129473663601</v>
+        <v>0.3215046113042237</v>
       </c>
       <c r="Q22" s="36">
         <f>(-1*I98)/Q102</f>
@@ -4147,7 +4167,7 @@
       </c>
       <c r="R22" s="37">
         <f>J107/Q102</f>
-        <v>2.049013916342883E-2</v>
+        <v>2.3550958869873594E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4318,7 +4338,7 @@
         <v>-18900000</v>
       </c>
       <c r="H28" s="11">
-        <v>600000</v>
+        <v>100000000</v>
       </c>
       <c r="I28" s="11">
         <v>273500000</v>
@@ -4333,10 +4353,10 @@
         <v>660400000</v>
       </c>
       <c r="M28" s="32">
-        <v>687000000</v>
+        <v>632000000</v>
       </c>
       <c r="N28" s="32">
-        <v>1629000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4366,11 +4386,11 @@
       </c>
       <c r="H29" s="15">
         <f t="shared" si="11"/>
-        <v>-1.0317460317460316</v>
+        <v>-6.2910052910052912</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="11"/>
-        <v>454.83333333333331</v>
+        <v>1.7349999999999999</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
@@ -4386,11 +4406,11 @@
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
-        <v>4.0278619018776496E-2</v>
+        <v>-4.300423985463353E-2</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
-        <v>1.3711790393013099</v>
+        <v>0.58227848101265822</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4423,11 +4443,11 @@
       </c>
       <c r="J30" s="33">
         <f>J28/J3</f>
-        <v>0.42199248120300753</v>
+        <v>0.42680608365019013</v>
       </c>
       <c r="K30" s="33">
         <f t="shared" ref="K30:N30" si="17">K28/K3</f>
-        <v>0.38139870223503963</v>
+        <v>0.38584974471188915</v>
       </c>
       <c r="L30" s="33">
         <f t="shared" si="17"/>
@@ -4435,11 +4455,11 @@
       </c>
       <c r="M30" s="33">
         <f t="shared" si="17"/>
-        <v>0.43234738829452485</v>
+        <v>0.39773442416614224</v>
       </c>
       <c r="N30" s="33">
         <f t="shared" si="17"/>
-        <v>0.71042302660270384</v>
+        <v>0.43610989969472308</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4500,7 +4520,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4528,8 +4548,12 @@
       <c r="I33" s="1">
         <v>171800000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" cm="1">
+        <f t="array" ref="J33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>179715400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4557,8 +4581,12 @@
       <c r="I34" s="1">
         <v>201600000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" cm="1">
+        <f t="array" ref="J34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>179715400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4568,7 +4596,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:I35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:J35" si="18">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
@@ -4591,8 +4619,12 @@
         <f t="shared" si="18"/>
         <v>0.37893296853625169</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J35" s="22">
+        <f t="shared" si="18"/>
+        <v>-0.10855456349206349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4621,7 +4653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4650,7 +4682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4679,7 +4711,7 @@
         <v>189000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4708,7 +4740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4737,7 +4769,7 @@
         <v>189000000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4766,7 +4798,7 @@
         <v>141600000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4795,7 +4827,7 @@
         <v>152300000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4824,7 +4856,7 @@
         <v>61100000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4853,7 +4885,7 @@
         <v>544000000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4882,7 +4914,7 @@
         <v>973100000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4911,7 +4943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4940,7 +4972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -6027,10 +6059,10 @@
       <c r="M84" s="45"/>
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
-      <c r="P84" s="71" t="s">
+      <c r="P84" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="Q84" s="72"/>
+      <c r="Q84" s="73"/>
     </row>
     <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6066,10 +6098,10 @@
       <c r="M85" s="45"/>
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
-      <c r="P85" s="73" t="s">
+      <c r="P85" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="Q85" s="73"/>
+      <c r="Q85" s="74"/>
     </row>
     <row r="86" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -6449,10 +6481,10 @@
       <c r="M94" s="45"/>
       <c r="N94" s="45"/>
       <c r="O94" s="45"/>
-      <c r="P94" s="73" t="s">
+      <c r="P94" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="Q94" s="73"/>
+      <c r="Q94" s="74"/>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -6491,9 +6523,9 @@
       <c r="P95" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="Q95" s="49">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.8019999999999993E-2</v>
+      <c r="Q95" s="50">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6533,9 +6565,9 @@
       <c r="P96" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="Q96" s="50" cm="1">
+      <c r="Q96" s="49" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>1.8531</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6575,7 +6607,7 @@
       <c r="P97" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="Q97" s="51">
+      <c r="Q97" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6618,7 +6650,7 @@
       </c>
       <c r="Q98" s="47">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>0.11469453800000001</v>
+        <v>0.11310436</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6655,10 +6687,10 @@
       <c r="M99" s="45"/>
       <c r="N99" s="45"/>
       <c r="O99" s="45"/>
-      <c r="P99" s="73" t="s">
+      <c r="P99" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="Q99" s="73"/>
+      <c r="Q99" s="74"/>
     </row>
     <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6741,7 +6773,7 @@
       </c>
       <c r="Q101" s="47">
         <f>Q100/Q104</f>
-        <v>7.1879518473858151E-2</v>
+        <v>7.8366077787415417E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6781,9 +6813,9 @@
       <c r="P102" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="Q102" s="52" cm="1">
+      <c r="Q102" s="51" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>3123453652</v>
+        <v>2844894782</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6825,7 +6857,7 @@
       </c>
       <c r="Q103" s="47">
         <f>Q102/Q104</f>
-        <v>0.92812048152614179</v>
+        <v>0.92163392221258456</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6856,25 +6888,25 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="J104" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
+      <c r="J104" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K104" s="76"/>
+      <c r="L104" s="76"/>
+      <c r="M104" s="76"/>
+      <c r="N104" s="76"/>
       <c r="O104" s="45"/>
       <c r="P104" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Q104" s="53">
+      <c r="Q104" s="52">
         <f>Q100+Q102</f>
-        <v>3365353652</v>
+        <v>3086794782</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" ref="C105:I105" si="21">(C22*(1-$Q$92))+C77+C88+C81</f>
@@ -6904,37 +6936,37 @@
         <f t="shared" si="21"/>
         <v>413291890.28026235</v>
       </c>
-      <c r="J105" s="54">
-        <f>I105*(1+$Q$107)</f>
-        <v>512128104.15573263</v>
-      </c>
-      <c r="K105" s="54">
-        <f>J105*(1+$Q$107)</f>
-        <v>634600390.75117183</v>
-      </c>
-      <c r="L105" s="54">
-        <f>K105*(1+$Q$107)</f>
-        <v>786361171.49914873</v>
-      </c>
-      <c r="M105" s="54">
-        <f>L105*(1+$Q$107)</f>
-        <v>974414609.65626073</v>
-      </c>
-      <c r="N105" s="54">
-        <f>M105*(1+$Q$107)</f>
-        <v>1207439871.0473344</v>
-      </c>
-      <c r="O105" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="P105" s="73" t="s">
+      <c r="J105" s="69">
+        <f>J107/J3</f>
+        <v>6.3688212927756657E-2</v>
+      </c>
+      <c r="K105" s="69">
+        <f>K107/K3</f>
+        <v>5.8351568198395334E-2</v>
+      </c>
+      <c r="L105" s="69">
+        <f>L107/L3</f>
+        <v>0.15814266487213996</v>
+      </c>
+      <c r="M105" s="69">
+        <f>M107/M3</f>
+        <v>0.23348017621145375</v>
+      </c>
+      <c r="N105" s="69">
+        <f>N107/N3</f>
+        <v>0.4840819886611426</v>
+      </c>
+      <c r="O105" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="Q105" s="73"/>
+      <c r="Q105" s="74"/>
     </row>
     <row r="106" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
@@ -6965,41 +6997,41 @@
         <f t="shared" si="22"/>
         <v>0.74884615384615394</v>
       </c>
-      <c r="J106" s="56">
+      <c r="J106" s="54">
         <f>(J107/I107)-1</f>
-        <v>-0.85924785572905216</v>
-      </c>
-      <c r="K106" s="56">
+        <v>-0.85265009896635147</v>
+      </c>
+      <c r="K106" s="54">
         <f>(K107/J107)-1</f>
-        <v>1.8125</v>
-      </c>
-      <c r="L106" s="56">
+        <v>0.19402985074626855</v>
+      </c>
+      <c r="L106" s="54">
         <f>(L107/K107)-1</f>
-        <v>0.18888888888888888</v>
-      </c>
-      <c r="M106" s="56">
+        <v>1.9375</v>
+      </c>
+      <c r="M106" s="54">
         <f>(M107/L107)-1</f>
-        <v>0.73364485981308403</v>
-      </c>
-      <c r="N106" s="56">
+        <v>0.5787234042553191</v>
+      </c>
+      <c r="N106" s="54">
         <f>(N107/M107)-1</f>
         <v>1.9919137466307277</v>
       </c>
-      <c r="O106" s="57">
+      <c r="O106" s="55">
         <f>SUM(J106:N106)/5</f>
-        <v>0.77353992792072968</v>
+        <v>0.76990338053319274</v>
       </c>
       <c r="P106" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="Q106" s="58">
+      <c r="Q106" s="56">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>0.18602352935144517</v>
+        <v>0.19099484594946808</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -7025,45 +7057,45 @@
       <c r="I107" s="1">
         <v>454700000</v>
       </c>
-      <c r="J107" s="59">
-        <v>64000000</v>
-      </c>
-      <c r="K107" s="59">
-        <v>180000000</v>
-      </c>
-      <c r="L107" s="59">
-        <v>214000000</v>
-      </c>
-      <c r="M107" s="59">
+      <c r="J107" s="57">
+        <v>67000000</v>
+      </c>
+      <c r="K107" s="57">
+        <v>80000000</v>
+      </c>
+      <c r="L107" s="57">
+        <v>235000000</v>
+      </c>
+      <c r="M107" s="57">
         <v>371000000</v>
       </c>
-      <c r="N107" s="59">
+      <c r="N107" s="57">
         <v>1110000000</v>
       </c>
-      <c r="O107" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="P107" s="60" t="s">
+      <c r="O107" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" s="58" t="s">
         <v>143</v>
       </c>
       <c r="Q107" s="42">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.23914385014534703</v>
+        <v>0.23862531006461701</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="J108" s="55"/>
-      <c r="K108" s="55"/>
-      <c r="L108" s="55"/>
-      <c r="M108" s="55"/>
-      <c r="N108" s="61">
+      <c r="J108" s="53"/>
+      <c r="K108" s="53"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="59">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>7065737563.8362799</v>
-      </c>
-      <c r="O108" s="62" t="s">
+        <v>6854128473.0391703</v>
+      </c>
+      <c r="O108" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="P108" s="63" t="s">
+      <c r="P108" s="61" t="s">
         <v>145</v>
       </c>
       <c r="Q108" s="43">
@@ -7071,42 +7103,42 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="J109" s="61">
+      <c r="J109" s="59">
         <f t="shared" ref="J109:M109" si="23">J108+J107</f>
-        <v>64000000</v>
-      </c>
-      <c r="K109" s="61">
+        <v>67000000</v>
+      </c>
+      <c r="K109" s="59">
         <f t="shared" si="23"/>
-        <v>180000000</v>
-      </c>
-      <c r="L109" s="61">
+        <v>80000000</v>
+      </c>
+      <c r="L109" s="59">
         <f t="shared" si="23"/>
-        <v>214000000</v>
-      </c>
-      <c r="M109" s="61">
+        <v>235000000</v>
+      </c>
+      <c r="M109" s="59">
         <f t="shared" si="23"/>
         <v>371000000</v>
       </c>
-      <c r="N109" s="61">
+      <c r="N109" s="59">
         <f>N108+N107</f>
-        <v>8175737563.8362799</v>
-      </c>
-      <c r="O109" s="62" t="s">
+        <v>7964128473.0391703</v>
+      </c>
+      <c r="O109" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="P109" s="64" t="s">
+      <c r="P109" s="62" t="s">
         <v>146</v>
       </c>
       <c r="Q109" s="42">
         <f>Q106</f>
-        <v>0.18602352935144517</v>
+        <v>0.19099484594946808</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="J110" s="74" t="s">
+      <c r="J110" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="K110" s="74"/>
+      <c r="K110" s="75"/>
       <c r="L110" s="45"/>
       <c r="M110" s="45"/>
       <c r="N110" s="45"/>
@@ -7115,12 +7147,12 @@
       <c r="Q110" s="45"/>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J111" s="65" t="s">
+      <c r="J111" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="K111" s="52">
+      <c r="K111" s="51">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>3981555380.5643425</v>
+        <v>3759594307.1904893</v>
       </c>
       <c r="L111" s="45"/>
       <c r="M111" s="45"/>
@@ -7130,10 +7162,10 @@
       <c r="Q111" s="45"/>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J112" s="65" t="s">
+      <c r="J112" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="K112" s="52">
+      <c r="K112" s="51">
         <f>I40</f>
         <v>189000000</v>
       </c>
@@ -7145,10 +7177,10 @@
       <c r="Q112" s="45"/>
     </row>
     <row r="113" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J113" s="65" t="s">
+      <c r="J113" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="K113" s="52">
+      <c r="K113" s="51">
         <f>Q100</f>
         <v>241900000</v>
       </c>
@@ -7160,12 +7192,12 @@
       <c r="Q113" s="45"/>
     </row>
     <row r="114" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J114" s="65" t="s">
+      <c r="J114" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="K114" s="52">
+      <c r="K114" s="51">
         <f>K111+K112-K113</f>
-        <v>3928655380.5643425</v>
+        <v>3706694307.1904893</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114" s="45"/>
@@ -7175,12 +7207,12 @@
       <c r="Q114" s="45"/>
     </row>
     <row r="115" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J115" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="K115" s="65">
-        <f>I34*(1+(5*0.05))</f>
-        <v>252000000</v>
+      <c r="J115" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="K115" s="63">
+        <f>J34*(1+(5*O16))</f>
+        <v>225910680.38108733</v>
       </c>
       <c r="L115" s="45"/>
       <c r="M115" s="45"/>
@@ -7190,12 +7222,12 @@
       <c r="Q115" s="45"/>
     </row>
     <row r="116" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J116" s="66" t="s">
+      <c r="J116" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="K116" s="67">
+      <c r="K116" s="65">
         <f>K114/K115</f>
-        <v>15.589902303826756</v>
+        <v>16.407786922414157</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116" s="45"/>
@@ -7205,12 +7237,12 @@
       <c r="Q116" s="45"/>
     </row>
     <row r="117" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J117" s="65" t="s">
+      <c r="J117" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="K117" s="68" cm="1">
+      <c r="K117" s="66" cm="1">
         <f t="array" ref="K117">_FV(A1,"Previous close",TRUE)</f>
-        <v>16.82</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117" s="45"/>
@@ -7220,12 +7252,12 @@
       <c r="Q117" s="45"/>
     </row>
     <row r="118" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J118" s="66" t="s">
+      <c r="J118" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="K118" s="69">
+      <c r="K118" s="67">
         <f>K116/K117-1</f>
-        <v>-7.3133037822428304E-2</v>
+        <v>1.9117200149947555E-2</v>
       </c>
       <c r="L118" s="45"/>
       <c r="M118" s="45"/>
@@ -7235,12 +7267,12 @@
       <c r="Q118" s="45"/>
     </row>
     <row r="119" spans="10:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="J119" s="66" t="s">
+      <c r="J119" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="K119" s="70" t="str">
+      <c r="K119" s="68" t="str">
         <f>IF(K116&gt;K117,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="L119" s="45"/>
       <c r="M119" s="45"/>

--- a/Commodities/Livent.xlsx
+++ b/Commodities/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Commodities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE685AB0-B373-434F-A8CA-350271C72D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145B849-4C46-904F-A6D9-AC9E679BBC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2375,6 +2375,7 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
@@ -2398,14 +2399,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2416,6 +2417,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2542,12 +2544,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>35.81</v>
-    <v>15.725</v>
-    <v>1.853</v>
-    <v>-0.27</v>
-    <v>-1.677E-2</v>
-    <v>0.23</v>
-    <v>1.4529E-2</v>
+    <v>15.01</v>
+    <v>1.8748</v>
+    <v>-0.19</v>
+    <v>-1.2418E-2</v>
+    <v>-0.01</v>
+    <v>-6.6180000000000004E-4</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2555,25 +2557,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>16.18</v>
+    <v>15.69</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45219.991373159377</v>
+    <v>45226.99902977969</v>
     <v>0</v>
-    <v>15.725</v>
-    <v>2844894782</v>
+    <v>15.01</v>
+    <v>2715500000</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>15.95</v>
-    <v>9.2212999999999994</v>
-    <v>16.100000000000001</v>
-    <v>15.83</v>
-    <v>16.059999999999999</v>
+    <v>15.4</v>
+    <v>8.6542999999999992</v>
+    <v>15.3</v>
+    <v>15.11</v>
+    <v>15.1</v>
     <v>179715400</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>3894655</v>
-    <v>3920371</v>
+    <v>2603242</v>
+    <v>3859127</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2738,9 +2740,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3161,10 +3163,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3875,15 +3877,15 @@
       </c>
       <c r="P16" s="27">
         <f>Q102/I3</f>
-        <v>3.4983949606492866</v>
+        <v>3.3392769306443681</v>
       </c>
       <c r="Q16" s="27">
         <f>Q102/I28</f>
-        <v>10.401809074954295</v>
+        <v>9.9287020109689212</v>
       </c>
       <c r="R16" s="28">
         <f>Q102/I107</f>
-        <v>6.2566412623707937</v>
+        <v>5.9720694963712342</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4005,15 +4007,15 @@
       </c>
       <c r="P19" s="27">
         <f>Q102/J3</f>
-        <v>2.7042726064638782</v>
+        <v>2.581273764258555</v>
       </c>
       <c r="Q19" s="34">
         <f>Q102/J28</f>
-        <v>6.3360685567928732</v>
+        <v>6.0478841870824054</v>
       </c>
       <c r="R19" s="28">
         <f>Q102/J107</f>
-        <v>42.461116149253733</v>
+        <v>40.529850746268657</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4169,7 @@
       </c>
       <c r="R22" s="37">
         <f>J107/Q102</f>
-        <v>2.3550958869873594E-2</v>
+        <v>2.4673172528079542E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6525,7 +6527,7 @@
       </c>
       <c r="Q95" s="50">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6567,7 +6569,7 @@
       </c>
       <c r="Q96" s="49" cm="1">
         <f t="array" ref="Q96">_FV(A1,"Beta")</f>
-        <v>1.853</v>
+        <v>1.8748</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6650,7 +6652,7 @@
       </c>
       <c r="Q98" s="47">
         <f>(Q95)+((Q96)*(Q97-Q95))</f>
-        <v>0.11310436</v>
+        <v>0.11509914000000002</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6773,7 +6775,7 @@
       </c>
       <c r="Q101" s="47">
         <f>Q100/Q104</f>
-        <v>7.8366077787415417E-2</v>
+        <v>8.1794819774125921E-2</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6815,7 +6817,7 @@
       </c>
       <c r="Q102" s="51" cm="1">
         <f t="array" ref="Q102">_FV(A1,"Market cap",TRUE)</f>
-        <v>2844894782</v>
+        <v>2715500000</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6857,7 +6859,7 @@
       </c>
       <c r="Q103" s="47">
         <f>Q102/Q104</f>
-        <v>0.92163392221258456</v>
+        <v>0.91820518022587405</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6901,7 +6903,7 @@
       </c>
       <c r="Q104" s="52">
         <f>Q100+Q102</f>
-        <v>3086794782</v>
+        <v>2957400000</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7026,7 +7028,7 @@
       </c>
       <c r="Q106" s="56">
         <f>(Q101*Q93)+(Q103*Q98)</f>
-        <v>0.19099484594946808</v>
+        <v>0.19623439675061283</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -7090,7 +7092,7 @@
       <c r="M108" s="53"/>
       <c r="N108" s="59">
         <f>N107*(1+Q108)/(Q109-Q108)</f>
-        <v>6854128473.0391703</v>
+        <v>6644401017.4954996</v>
       </c>
       <c r="O108" s="60" t="s">
         <v>144</v>
@@ -7121,7 +7123,7 @@
       </c>
       <c r="N109" s="59">
         <f>N108+N107</f>
-        <v>7964128473.0391703</v>
+        <v>7754401017.4954996</v>
       </c>
       <c r="O109" s="60" t="s">
         <v>141</v>
@@ -7131,7 +7133,7 @@
       </c>
       <c r="Q109" s="42">
         <f>Q106</f>
-        <v>0.19099484594946808</v>
+        <v>0.19623439675061283</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="19" x14ac:dyDescent="0.2">
@@ -7152,7 +7154,7 @@
       </c>
       <c r="K111" s="51">
         <f>NPV(Q109,J109,K109,L109,M109,N109)</f>
-        <v>3759594307.1904893</v>
+        <v>3596056692.5998731</v>
       </c>
       <c r="L111" s="45"/>
       <c r="M111" s="45"/>
@@ -7197,7 +7199,7 @@
       </c>
       <c r="K114" s="51">
         <f>K111+K112-K113</f>
-        <v>3706694307.1904893</v>
+        <v>3543156692.5998731</v>
       </c>
       <c r="L114" s="45"/>
       <c r="M114" s="45"/>
@@ -7227,7 +7229,7 @@
       </c>
       <c r="K116" s="65">
         <f>K114/K115</f>
-        <v>16.407786922414157</v>
+        <v>15.683883057777276</v>
       </c>
       <c r="L116" s="45"/>
       <c r="M116" s="45"/>
@@ -7242,7 +7244,7 @@
       </c>
       <c r="K117" s="66" cm="1">
         <f t="array" ref="K117">_FV(A1,"Previous close",TRUE)</f>
-        <v>16.100000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="L117" s="45"/>
       <c r="M117" s="45"/>
@@ -7257,7 +7259,7 @@
       </c>
       <c r="K118" s="67">
         <f>K116/K117-1</f>
-        <v>1.9117200149947555E-2</v>
+        <v>2.5090395933155207E-2</v>
       </c>
       <c r="L118" s="45"/>
       <c r="M118" s="45"/>
